--- a/biology/Botanique/Jasione_crispa/Jasione_crispa.xlsx
+++ b/biology/Botanique/Jasione_crispa/Jasione_crispa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jasione crépue
 La Jasione crépue  (Jasione crispa) est une espèce de plantes herbacées vivaces de la famille des Campanulacées.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses et rochers de montagnes.
 </t>
@@ -569,7 +585,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Jasione crépue est une plante de montagne présente en péninsule ibérique jusqu'aux Pyrénées. Une sous-espèce, appelée jasione d'Auvergne (Jasione crispa subsp. arvernensis) croît dans les Monts Dore (Massif central) autour du puy de Sancy, exclusivement sur sol trachytique, au-dessus de 1 500 m d'altitude.
 </t>
@@ -600,9 +618,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 mars 2012)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 mars 2012) :
 sous-espèce Jasione crispa subsp. amethystina (Lag. &amp; Rodr.) Tutin (1973)
 sous-espèce Jasione crispa subsp. arvernensis Tutin (1973)
 sous-espèce Jasione crispa subsp. crispa
@@ -610,7 +630,7 @@
 sous-espèce Jasione crispa subsp. mariana (Willk.) Rivas Mart. (1971 publ. 1972)
 sous-espèce Jasione crispa subsp. tomentosa (A.DC.) Rivas Mart. (1971 publ. 1972)
 sous-espèce Jasione crispa subsp. varduliensis Uribe-Ech. (1999)
-Selon NCBI  (15 mars 2012)[2] :
+Selon NCBI  (15 mars 2012) :
 sous-espèce Jasione crispa subsp. crispa
 sous-espèce Jasione crispa subsp. mariana
 sous-espèce Jasione crispa subsp. tristis</t>
